--- a/biology/Zoologie/Refuge_d'oiseaux_migrateurs_de_la_Baie-Boatswain/Refuge_d'oiseaux_migrateurs_de_la_Baie-Boatswain.xlsx
+++ b/biology/Zoologie/Refuge_d'oiseaux_migrateurs_de_la_Baie-Boatswain/Refuge_d'oiseaux_migrateurs_de_la_Baie-Boatswain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Refuge_d%27oiseaux_migrateurs_de_la_Baie-Boatswain</t>
+          <t>Refuge_d'oiseaux_migrateurs_de_la_Baie-Boatswain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le refuge d’oiseaux migrateurs de la Baie-Boatswain est une aire protégée du Canada, l'un des 28 refuges d'oiseaux migrateurs du Québec et l'un des 10 du Nunavut. La réserve de la biodiversité est située au sud-est de la Baie-James[3].Le refuge a pour but de protéger une halte migratoire de la bernache du Canada, de la petite oie des neiges et de la bernache cravant.
-Le refuge se trouve non loin de la rive de Baie-Boatswain et regroupe toutes les Îles, les eaux, hauts profonds et rochers avoisinants[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le refuge d’oiseaux migrateurs de la Baie-Boatswain est une aire protégée du Canada, l'un des 28 refuges d'oiseaux migrateurs du Québec et l'un des 10 du Nunavut. La réserve de la biodiversité est située au sud-est de la Baie-James.Le refuge a pour but de protéger une halte migratoire de la bernache du Canada, de la petite oie des neiges et de la bernache cravant.
+Le refuge se trouve non loin de la rive de Baie-Boatswain et regroupe toutes les Îles, les eaux, hauts profonds et rochers avoisinants.
 </t>
         </is>
       </c>
